--- a/Python Packages.xlsx
+++ b/Python Packages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,8 +433,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -458,165 +458,165 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>autopep8</t>
+          <t>absl-py</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.0.0</t>
+          <t>1.4.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Thu Nov 17 2022</t>
+          <t>Mon Mar 6 2023</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>beautifulsoup4</t>
+          <t>anyio</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.11.1</t>
+          <t>3.6.2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Thu Nov 17 2022</t>
+          <t>Tue Dec 13 2022</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>build</t>
+          <t>argon2-cffi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.9.0</t>
+          <t>21.3.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Wed Dec 7 2022</t>
+          <t>Tue Dec 13 2022</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>certifi</t>
+          <t>argon2-cffi-bindings</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022.9.24</t>
+          <t>21.2.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Wed Dec 7 2022</t>
+          <t>Tue Dec 13 2022</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>charset-normalizer</t>
+          <t>arrow</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3.0.1</t>
+          <t>1.2.3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wed Dec 7 2022</t>
+          <t>Tue Dec 13 2022</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>asgiref</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8.1.3</t>
+          <t>3.6.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Thu Nov 17 2022</t>
+          <t>Fri Jan 6 2023</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>colorama</t>
+          <t>asttokens</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.4.6</t>
+          <t>2.2.1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Thu Nov 17 2022</t>
+          <t>Tue Dec 13 2022</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>distlib</t>
+          <t>astunparse</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.3.6</t>
+          <t>1.6.3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Wed Nov 16 2022</t>
+          <t>Sun Jan 8 2023</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>docopt</t>
+          <t>attrs</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.6.2</t>
+          <t>22.2.0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Thu Nov 10 2022</t>
+          <t>Mon Mar 6 2023</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>et-xmlfile</t>
+          <t>autopep8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.1.0</t>
+          <t>2.0.2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -628,80 +628,80 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>filelock</t>
+          <t>backcall</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3.8.2</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Wed Dec 7 2022</t>
+          <t>Tue Dec 13 2022</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Flask</t>
+          <t>beautifulsoup4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2.2.2</t>
+          <t>4.11.2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Thu Nov 17 2022</t>
+          <t>Mon Mar 6 2023</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>fsspec</t>
+          <t>bleach</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022.11.0</t>
+          <t>6.0.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Wed Dec 7 2022</t>
+          <t>Mon Mar 6 2023</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>idna</t>
+          <t>blis</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>0.9.1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Wed Dec 7 2022</t>
+          <t>Mon Mar 6 2023</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>importlib-metadata</t>
+          <t>build</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5.1.0</t>
+          <t>0.10.0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -713,80 +713,80 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>itsdangerous</t>
+          <t>cachetools</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2.1.2</t>
+          <t>5.3.0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Thu Nov 17 2022</t>
+          <t>Mon Mar 6 2023</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Jinja2</t>
+          <t>catalogue</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3.1.2</t>
+          <t>2.0.8</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Thu Nov 17 2022</t>
+          <t>Sun Dec 18 2022</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>littleutils</t>
+          <t>certifi</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.2.2</t>
+          <t>2022.12.7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Thu Nov 10 2022</t>
+          <t>Mon Mar 6 2023</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>MarkupSafe</t>
+          <t>cffi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2.1.1</t>
+          <t>1.15.1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Thu Nov 17 2022</t>
+          <t>Thu Nov 10 2022</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>numpy</t>
+          <t>charset-normalizer</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.23.5</t>
+          <t>3.1.0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -798,12 +798,12 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>openpyxl</t>
+          <t>click</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3.0.10</t>
+          <t>8.1.3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -815,301 +815,301 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>outdated</t>
+          <t>colorama</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.2.2</t>
+          <t>0.4.6</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Wed Dec 7 2022</t>
+          <t>Thu Nov 17 2022</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>packaging</t>
+          <t>comm</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>21.3</t>
+          <t>0.1.2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Wed Dec 7 2022</t>
+          <t>Tue Dec 13 2022</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>pandas</t>
+          <t>comtypes</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.5.2</t>
+          <t>1.1.14</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Wed Dec 7 2022</t>
+          <t>Sat Jan 7 2023</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>pep517</t>
+          <t>confection</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.13.0</t>
+          <t>0.0.4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Wed Dec 7 2022</t>
+          <t>Mon Mar 6 2023</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Pillow</t>
+          <t>country-list</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9.3.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Wed Nov 16 2022</t>
+          <t>Fri Dec 9 2022</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>pip</t>
+          <t>cryptography</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>22.3.1</t>
+          <t>39.0.2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Wed Nov 16 2022</t>
+          <t>Mon Mar 6 2023</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>pipreqs</t>
+          <t>cymem</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.4.11</t>
+          <t>2.0.7</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Wed Dec 7 2022</t>
+          <t>Sun Dec 18 2022</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>pip-tools</t>
+          <t>debugpy</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6.11.0</t>
+          <t>1.6.6</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Wed Dec 7 2022</t>
+          <t>Mon Mar 6 2023</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>platformdirs</t>
+          <t>decorator</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2.5.4</t>
+          <t>5.1.1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Wed Nov 16 2022</t>
+          <t>Tue Dec 13 2022</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>pycodestyle</t>
+          <t>defusedxml</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2.10.0</t>
+          <t>0.7.1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Thu Nov 17 2022</t>
+          <t>Tue Dec 13 2022</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>pyjokes</t>
+          <t>distlib</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.6.0</t>
+          <t>0.3.6</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sun Nov 20 2022</t>
+          <t>Wed Nov 16 2022</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>pyparsing</t>
+          <t>Django</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3.0.9</t>
+          <t>4.1.7</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Wed Dec 7 2022</t>
+          <t>Mon Mar 6 2023</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>python-dateutil</t>
+          <t>django-partial-date</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2.8.2</t>
+          <t>1.3.2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Thu Nov 17 2022</t>
+          <t>Fri Jan 6 2023</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>pytz</t>
+          <t>docopt</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022.6</t>
+          <t>0.6.2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Thu Nov 17 2022</t>
+          <t>Thu Nov 10 2022</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>requests</t>
+          <t>entrypoints</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2.28.1</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Wed Dec 7 2022</t>
+          <t>Tue Dec 13 2022</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>scipy</t>
+          <t>en-core-web-md</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.9.3</t>
+          <t>3.4.1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Thu Nov 10 2022</t>
+          <t>Sun Dec 18 2022</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>setuptools</t>
+          <t>en-core-web-sm</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>65.6.3</t>
+          <t>3.4.1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Wed Dec 7 2022</t>
+          <t>Sun Dec 18 2022</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>et-xmlfile</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.16.0</t>
+          <t>1.1.0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1121,136 +1121,2499 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>soupsieve</t>
+          <t>executing</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2.3.2.post1</t>
+          <t>1.2.0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Thu Nov 17 2022</t>
+          <t>Tue Dec 13 2022</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>tomli</t>
+          <t>fastjsonschema</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2.0.1</t>
+          <t>2.16.3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Thu Nov 17 2022</t>
+          <t>Mon Mar 6 2023</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>urllib3</t>
+          <t>filelock</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1.26.13</t>
+          <t>3.9.0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Wed Dec 7 2022</t>
+          <t>Mon Mar 6 2023</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>virtualenv</t>
+          <t>Flask</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>20.17.1</t>
+          <t>2.2.3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Wed Nov 16 2022</t>
+          <t>Thu Nov 17 2022</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Werkzeug</t>
+          <t>flatbuffers</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2.2.2</t>
+          <t>23.3.3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Thu Nov 17 2022</t>
+          <t>Mon Mar 6 2023</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>wheel</t>
+          <t>fqdn</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0.38.4</t>
+          <t>1.5.1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Wed Dec 7 2022</t>
+          <t>Tue Dec 13 2022</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>yarg</t>
+          <t>fsspec</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0.1.9</t>
+          <t>2023.3.0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Wed Dec 7 2022</t>
+          <t>Mon Mar 6 2023</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
+          <t>gast</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0.5.3</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>google-auth</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2.16.2</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>google-auth-oauthlib</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1.0.0</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Sun Jan 8 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>google-pasta</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0.2.0</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Sun Jan 8 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>grpcio</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1.51.3</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>h5py</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>3.8.0</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>idna</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Wed Dec 7 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>importlib-metadata</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>6.0.0</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>ipykernel</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>6.21.3</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>ipython</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>8.11.0</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>ipython-genutils</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0.2.0</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>ipywidgets</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>8.0.4</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>isoduration</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>20.11.0</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>itsdangerous</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2.1.2</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Thu Nov 17 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>jedi</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0.18.2</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Jinja2</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>3.1.2</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Thu Nov 17 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>jsonpointer</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>jsonschema</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>4.17.3</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>jupyter</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1.0.0</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>jupyterlab-pygments</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0.2.2</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>jupyterlab-widgets</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>3.0.5</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>jupyter_client</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>8.0.3</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>jupyter-console</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>6.6.3</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>jupyter_core</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>5.2.0</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>jupyter-events</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0.6.3</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>jupyter_server</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2.3.0</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>jupyter_server_terminals</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0.4.4</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>keras</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2.11.0</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Sun Jan 8 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>langcodes</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>3.3.0</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Sun Dec 18 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>libclang</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>15.0.6.1</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>littleutils</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0.2.2</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Thu Nov 10 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>lorem</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0.1.1</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Sat Jan 7 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Markdown</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>3.4.1</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Sun Jan 8 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>MarkupSafe</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2.1.2</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>matplotlib-inline</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0.1.6</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>mistune</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2.0.5</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>murmurhash</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1.0.9</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Sun Dec 18 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>nbclassic</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0.5.3</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>nbclient</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0.7.2</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>nbconvert</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>7.2.9</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>nbformat</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>5.7.3</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>nest-asyncio</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1.5.6</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>notebook</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>6.5.3</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>notebook_shim</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0.2.2</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>numpy</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1.24.2</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>oauthlib</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>3.2.2</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Sun Jan 8 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>openpyxl</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>3.1.1</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>opt-einsum</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>3.3.0</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Sun Jan 8 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>outdated</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>0.2.2</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Wed Dec 7 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>packaging</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>pandas</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1.5.3</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>pandocfilters</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1.5.0</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>parso</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>0.8.3</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>pathy</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>0.10.1</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Sun Dec 18 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>pep517</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>0.13.0</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Wed Dec 7 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>pickleshare</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>0.7.5</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>Pillow</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>9.4.0</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>pip</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>23.0.1</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>pipreqs</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>0.4.11</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Wed Dec 7 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>pip-tools</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>6.12.3</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Wed Dec 7 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>platformdirs</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>3.1.0</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>preshed</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>3.0.8</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Sun Dec 18 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>prometheus-client</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>0.16.0</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>prompt-toolkit</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>3.0.38</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>protobuf</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>4.22.0</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>psutil</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>5.9.4</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>pure-eval</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>0.2.2</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>pyasn1</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>0.4.8</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Sun Jan 8 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>pyasn1-modules</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>0.2.8</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Sun Jan 8 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>pycodestyle</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2.10.0</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Thu Nov 17 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>pycparser</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>pydantic</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1.10.5</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>Pygments</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2.14.0</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>pyjokes</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>0.6.0</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Sun Nov 20 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>pyparsing</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>3.0.9</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Wed Dec 7 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>pypiwin32</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Sat Jan 7 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>pyproject_hooks</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1.0.0</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>pyrsistent</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>0.19.3</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>python-dateutil</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2.8.2</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Thu Nov 17 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>python-json-logger</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2.0.7</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>pyttsx3</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Sat Jan 7 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>pytz</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2022.7.1</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>pywin32</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>pywinpty</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2.0.10</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>PyYAML</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>pyzmq</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>25.0.0</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>qtconsole</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>5.4.0</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>QtPy</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2.3.0</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>requests</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2.28.2</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>requests-oauthlib</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1.3.1</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Sun Jan 8 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>rfc3339-validator</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>0.1.4</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>rfc3986-validator</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>0.1.1</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>rsa</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Sun Jan 8 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>scipy</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1.10.1</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Thu Nov 10 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>Send2Trash</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1.8.0</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>setuptools</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>67.5.1</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>six</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1.16.0</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Thu Nov 17 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>smart-open</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>6.3.0</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Sun Dec 18 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>sniffio</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1.3.0</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>soupsieve</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>spacy</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>3.5.0</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>spacy-legacy</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>3.0.12</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>spacy-loggers</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1.0.4</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Sun Dec 18 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>sqlparse</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>0.4.3</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Fri Jan 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>srsly</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2.4.6</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>stack-data</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>0.6.2</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>tabulate</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>0.9.0</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Thu Dec 8 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>tensorboard</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2.12.0</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>tensorboard-data-server</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>0.7.0</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>tensorboard-plugin-wit</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>1.8.1</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Sun Jan 8 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>tensorflow</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2.11.0</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Sun Jan 8 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>tensorflow-estimator</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2.11.0</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Sun Jan 8 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>tensorflow-intel</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2.11.0</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Sun Jan 8 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>tensorflow-io-gcs-filesystem</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>0.31.0</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>termcolor</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2.2.0</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>terminado</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>0.17.1</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>thinc</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>8.1.8</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>tinycss2</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>1.2.1</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>tomli</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2.0.1</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Thu Nov 17 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>tornado</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>6.2</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>tqdm</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>4.65.0</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Sun Dec 18 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>traitlets</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>5.9.0</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>typer</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>0.7.0</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Sun Dec 18 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>typing_extensions</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>4.5.0</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Sun Dec 18 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>tzdata</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2022.7</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Fri Jan 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>uri-template</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>1.2.0</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>urllib3</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>1.26.14</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>virtualenv</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>20.20.0</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Wed Nov 16 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>virtualenvwrapper-win</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>1.2.7</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Tue Jan 3 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>wasabi</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>1.1.1</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>wcwidth</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>0.2.6</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>webcolors</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>webencodings</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>0.5.1</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>websocket-client</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>1.5.1</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Tue Dec 13 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>Werkzeug</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2.2.3</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>wheel</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>0.38.4</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Wed Dec 7 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>widgetsnbextension</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>4.0.5</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>wrapt</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>1.15.0</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>yarg</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>0.1.9</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Wed Dec 7 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
           <t>zipp</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>3.11.0</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Wed Dec 7 2022</t>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>3.15.0</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Mon Mar 6 2023</t>
         </is>
       </c>
     </row>
